--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H2">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I2">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J2">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>86.18370839530306</v>
+        <v>135.2496786500889</v>
       </c>
       <c r="R2">
-        <v>86.18370839530306</v>
+        <v>1217.2471078508</v>
       </c>
       <c r="S2">
-        <v>0.0008465747242607022</v>
+        <v>0.001158442072497331</v>
       </c>
       <c r="T2">
-        <v>0.0008465747242607022</v>
+        <v>0.001302664332688096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H3">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I3">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J3">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>96.52290952774759</v>
+        <v>144.7366371438333</v>
       </c>
       <c r="R3">
-        <v>96.52290952774759</v>
+        <v>1302.6297342945</v>
       </c>
       <c r="S3">
-        <v>0.0009481357560467538</v>
+        <v>0.001239699876352247</v>
       </c>
       <c r="T3">
-        <v>0.0009481357560467538</v>
+        <v>0.00139403846813034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H4">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I4">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J4">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>49.65842697114123</v>
+        <v>72.67699393762221</v>
       </c>
       <c r="R4">
-        <v>49.65842697114123</v>
+        <v>654.0929454385999</v>
       </c>
       <c r="S4">
-        <v>0.0004877902088813485</v>
+        <v>0.0006224938078987421</v>
       </c>
       <c r="T4">
-        <v>0.0004877902088813485</v>
+        <v>0.0006999922569462401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H5">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I5">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J5">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>59.07956404905308</v>
+        <v>83.03394344539447</v>
       </c>
       <c r="R5">
-        <v>59.07956404905308</v>
+        <v>747.3054910085501</v>
       </c>
       <c r="S5">
-        <v>0.0005803331810098275</v>
+        <v>0.0007112032685960522</v>
       </c>
       <c r="T5">
-        <v>0.0005803331810098275</v>
+        <v>0.0007997457562069023</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H6">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I6">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J6">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>116.5784065898105</v>
+        <v>165.619910381675</v>
       </c>
       <c r="R6">
-        <v>116.5784065898105</v>
+        <v>993.7194622900502</v>
       </c>
       <c r="S6">
-        <v>0.001145139078500125</v>
+        <v>0.001418569523745361</v>
       </c>
       <c r="T6">
-        <v>0.001145139078500125</v>
+        <v>0.001063451202203972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J7">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>20010.48158611973</v>
+        <v>24470.71723987769</v>
       </c>
       <c r="R7">
-        <v>20010.48158611973</v>
+        <v>220236.4551588992</v>
       </c>
       <c r="S7">
-        <v>0.1965611395298976</v>
+        <v>0.2095968632073451</v>
       </c>
       <c r="T7">
-        <v>0.1965611395298976</v>
+        <v>0.2356909891531443</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J8">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>22411.07907406961</v>
+        <v>26187.19214084577</v>
       </c>
       <c r="R8">
-        <v>22411.07907406961</v>
+        <v>235684.7292676119</v>
       </c>
       <c r="S8">
-        <v>0.2201419901832545</v>
+        <v>0.2242988333821616</v>
       </c>
       <c r="T8">
-        <v>0.2201419901832545</v>
+        <v>0.2522233066696264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J9">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>11529.89418770298</v>
+        <v>13149.4446880942</v>
       </c>
       <c r="R9">
-        <v>11529.89418770298</v>
+        <v>118345.0021928478</v>
       </c>
       <c r="S9">
-        <v>0.1132571013066512</v>
+        <v>0.1126277719008454</v>
       </c>
       <c r="T9">
-        <v>0.1132571013066512</v>
+        <v>0.126649562208213</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H10">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I10">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J10">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>13717.33185461287</v>
+        <v>15023.32701744211</v>
       </c>
       <c r="R10">
-        <v>13717.33185461287</v>
+        <v>135209.943156979</v>
       </c>
       <c r="S10">
-        <v>0.1347441024369326</v>
+        <v>0.1286779699559703</v>
       </c>
       <c r="T10">
-        <v>0.1347441024369326</v>
+        <v>0.1446979575793498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H11">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I11">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J11">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>27067.64540352173</v>
+        <v>29965.60166866754</v>
       </c>
       <c r="R11">
-        <v>27067.64540352173</v>
+        <v>179793.6100120053</v>
       </c>
       <c r="S11">
-        <v>0.2658830174581082</v>
+        <v>0.256661709270966</v>
       </c>
       <c r="T11">
-        <v>0.2658830174581082</v>
+        <v>0.1924101700446021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H12">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I12">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J12">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>1406.401093017292</v>
+        <v>8.406807281172446</v>
       </c>
       <c r="R12">
-        <v>1406.401093017292</v>
+        <v>75.66126553055201</v>
       </c>
       <c r="S12">
-        <v>0.01381494994459942</v>
+        <v>7.20060805104224E-05</v>
       </c>
       <c r="T12">
-        <v>0.01381494994459942</v>
+        <v>8.097060271247255E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H13">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I13">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J13">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>1575.12281600117</v>
+        <v>8.996494684036666</v>
       </c>
       <c r="R13">
-        <v>1575.12281600117</v>
+        <v>80.96845215633</v>
       </c>
       <c r="S13">
-        <v>0.01547228807464038</v>
+        <v>7.705687770208839E-05</v>
       </c>
       <c r="T13">
-        <v>0.01547228807464038</v>
+        <v>8.66502076831731E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H14">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I14">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J14">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>810.3580974886271</v>
+        <v>4.517433888987111</v>
       </c>
       <c r="R14">
-        <v>810.3580974886271</v>
+        <v>40.656905000884</v>
       </c>
       <c r="S14">
-        <v>0.007960073843506714</v>
+        <v>3.869277567946714E-05</v>
       </c>
       <c r="T14">
-        <v>0.007960073843506714</v>
+        <v>4.350990006922369E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>11.3654884633482</v>
+        <v>0.06082233333333334</v>
       </c>
       <c r="H15">
-        <v>11.3654884633482</v>
+        <v>0.182467</v>
       </c>
       <c r="I15">
-        <v>0.06540467613645728</v>
+        <v>0.0003201374858976194</v>
       </c>
       <c r="J15">
-        <v>0.06540467613645728</v>
+        <v>0.0003269427250482888</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>964.0982617325117</v>
+        <v>5.161197921565224</v>
       </c>
       <c r="R15">
-        <v>964.0982617325117</v>
+        <v>46.45078129408701</v>
       </c>
       <c r="S15">
-        <v>0.009470249485468934</v>
+        <v>4.420675062966594E-05</v>
       </c>
       <c r="T15">
-        <v>0.009470249485468934</v>
+        <v>4.971034691890952E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.182467</v>
+      </c>
+      <c r="I16">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J16">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>10.2945506591995</v>
+      </c>
+      <c r="R16">
+        <v>61.76730395519701</v>
+      </c>
+      <c r="S16">
+        <v>8.817500137597549E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.610166766450995E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.042174</v>
+      </c>
+      <c r="H17">
+        <v>0.126522</v>
+      </c>
+      <c r="I17">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J17">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>5.829251704848</v>
+      </c>
+      <c r="R17">
+        <v>52.463265343632</v>
+      </c>
+      <c r="S17">
+        <v>4.99287724264643E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.614474176912785E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.042174</v>
+      </c>
+      <c r="H18">
+        <v>0.126522</v>
+      </c>
+      <c r="I18">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J18">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>6.238138953419998</v>
+      </c>
+      <c r="R18">
+        <v>56.14325058077999</v>
+      </c>
+      <c r="S18">
+        <v>5.343097809808692E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.008296062570452E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.042174</v>
+      </c>
+      <c r="H19">
+        <v>0.126522</v>
+      </c>
+      <c r="I19">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J19">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>3.132373363415999</v>
+      </c>
+      <c r="R19">
+        <v>28.191360270744</v>
+      </c>
+      <c r="S19">
+        <v>2.682943964945739E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.016961739140951E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.042174</v>
+      </c>
+      <c r="H20">
+        <v>0.126522</v>
+      </c>
+      <c r="I20">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J20">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>3.578757163938</v>
+      </c>
+      <c r="R20">
+        <v>32.208814475442</v>
+      </c>
+      <c r="S20">
+        <v>3.06528112106112E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.446898624339892E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.042174</v>
+      </c>
+      <c r="H21">
+        <v>0.126522</v>
+      </c>
+      <c r="I21">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J21">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>7.138206571617</v>
+      </c>
+      <c r="R21">
+        <v>42.829239429702</v>
+      </c>
+      <c r="S21">
+        <v>6.11402474096202E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.583467255037419E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.8636825</v>
+      </c>
+      <c r="H22">
+        <v>23.727365</v>
+      </c>
+      <c r="I22">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J22">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>1639.787343835073</v>
+      </c>
+      <c r="R22">
+        <v>9838.724063010441</v>
+      </c>
+      <c r="S22">
+        <v>0.01404512504581797</v>
+      </c>
+      <c r="T22">
+        <v>0.01052913154065571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.8636825</v>
+      </c>
+      <c r="H23">
+        <v>23.727365</v>
+      </c>
+      <c r="I23">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J23">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>1754.808648320225</v>
+      </c>
+      <c r="R23">
+        <v>10528.85188992135</v>
+      </c>
+      <c r="S23">
+        <v>0.01503030681984533</v>
+      </c>
+      <c r="T23">
+        <v>0.01126768733537819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="H16">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="I16">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="J16">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>1902.401294895535</v>
-      </c>
-      <c r="R16">
-        <v>1902.401294895535</v>
-      </c>
-      <c r="S16">
-        <v>0.01868711478824185</v>
-      </c>
-      <c r="T16">
-        <v>0.01868711478824185</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.8636825</v>
+      </c>
+      <c r="H24">
+        <v>23.727365</v>
+      </c>
+      <c r="I24">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J24">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>881.1467504866632</v>
+      </c>
+      <c r="R24">
+        <v>5286.880502919979</v>
+      </c>
+      <c r="S24">
+        <v>0.007547208082090239</v>
+      </c>
+      <c r="T24">
+        <v>0.005657873917234325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.8636825</v>
+      </c>
+      <c r="H25">
+        <v>23.727365</v>
+      </c>
+      <c r="I25">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J25">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>1006.715956218544</v>
+      </c>
+      <c r="R25">
+        <v>6040.295737311266</v>
+      </c>
+      <c r="S25">
+        <v>0.008622734858802387</v>
+      </c>
+      <c r="T25">
+        <v>0.006464158152551373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.8636825</v>
+      </c>
+      <c r="H26">
+        <v>23.727365</v>
+      </c>
+      <c r="I26">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J26">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>2008.000578201679</v>
+      </c>
+      <c r="R26">
+        <v>8032.002312806715</v>
+      </c>
+      <c r="S26">
+        <v>0.01719894919237401</v>
+      </c>
+      <c r="T26">
+        <v>0.008595627679440804</v>
       </c>
     </row>
   </sheetData>
